--- a/biology/Botanique/Psammophyte/Psammophyte.xlsx
+++ b/biology/Botanique/Psammophyte/Psammophyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un psammophyte est une plante psammophile (adaptée aux milieux sableux). Les milieux sableux sont sensibles à l'érosion aérienne. Les dunes, par exemple, se déplacent,il est par conséquent difficile pour un végétal de s'y établir. De plus, l'alimentation des plantes y est problématique, notamment en eau, car le sable ne contient que très peu d'eau lorsqu'il n'est pas approvisionné par précipitations ou irrigation.
-Généralement, les psammophytes possèdent des caractéristiques traduisant une adaptation au xérophytisme : port prostré, cuticule épaisse, pilosité importante pour résister aux effets mécaniques (rupture des parties aériennes, perforation de l’épiderme due au mitraillage par le sable lorsque le vent dépasse 16 km/h)[1].
+Généralement, les psammophytes possèdent des caractéristiques traduisant une adaptation au xérophytisme : port prostré, cuticule épaisse, pilosité importante pour résister aux effets mécaniques (rupture des parties aériennes, perforation de l’épiderme due au mitraillage par le sable lorsque le vent dépasse 16 km/h).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Exemples de psammophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carex arenaria, la Laîche des sables, qui, grâce à son rhizome, peut coloniser les dunes et suivre leur parcours.
 Ammophila arenaria, l'Oyat.
